--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67D41E-2F9B-4646-8E79-4201C42303A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA4A16-CA4C-492F-896F-C9BDB947B5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Chỉ tiêu</t>
-  </si>
-  <si>
-    <t>{Mã NV- Tên nhân viên}</t>
   </si>
   <si>
     <t>{Mã NV}</t>
@@ -161,10 +158,13 @@
     </r>
   </si>
   <si>
-    <t>END - Vui lòng insert các chỉ tiêu vào theo từng nhân viên</t>
-  </si>
-  <si>
     <t>Tên chỉ tiêu</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Vui lòng insert các chỉ tiêu vào theo từng nhân viên</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -634,7 +634,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -701,7 +701,9 @@
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -723,7 +725,7 @@
     </row>
     <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -751,7 +753,7 @@
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -779,7 +781,7 @@
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -807,7 +809,7 @@
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -835,7 +837,7 @@
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -863,7 +865,7 @@
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -891,7 +893,7 @@
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -920,6 +922,9 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +975,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1015,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA4A16-CA4C-492F-896F-C9BDB947B5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2439EF3D-09F0-4C73-94D1-77E55D813428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KPI nhân viên" sheetId="1" r:id="rId1"/>
+    <sheet name="KPI nhan vien" sheetId="1" r:id="rId1"/>
     <sheet name="Chi tieu" sheetId="3" r:id="rId2"/>
     <sheet name="Quy tắc import" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KPI nhân viên'!$A$4:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'KPI nhan vien'!$A$4:$C$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -580,18 +580,18 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="20" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
@@ -603,13 +603,13 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -968,35 +968,35 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -1013,12 +1013,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2439EF3D-09F0-4C73-94D1-77E55D813428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A332D-E5F2-48AC-BB72-C7853852EF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Vui lòng insert các chỉ tiêu vào theo từng nhân viên</t>
+  </si>
+  <si>
+    <t>SKU/ Đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>Doanh thu đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>Tổng sản lượng đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>Số đơn hàng trực tiếp</t>
   </si>
 </sst>
 </file>
@@ -577,10 +589,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -919,11 +931,123 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -950,9 +1074,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>'Chi tieu'!$A$2:$A$8</xm:f>
+            <xm:f>'Chi tieu'!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C13</xm:sqref>
+          <xm:sqref>C7:C17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -962,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,25 +1103,59 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A332D-E5F2-48AC-BB72-C7853852EF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C6591-7BAA-47FF-AEDB-A83384CB304D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhan vien" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Năm</t>
   </si>
   <si>
-    <t>{Tên nhân viên}</t>
-  </si>
-  <si>
     <t>Số lần viếng thăm đại lý</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>Chỉ tiêu</t>
-  </si>
-  <si>
-    <t>{Mã NV}</t>
   </si>
   <si>
     <t>Tháng</t>
@@ -177,6 +171,45 @@
   </si>
   <si>
     <t>Số đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.Username}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalIndirectOrders.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalIndirectQuantity.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalIndirectSalesAmount.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUIndirectOrder.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.StoresVisited.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.NewStoresCreated.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.NumberOfStoreVisits.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectOrders.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectQuantity.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalDirectSalesAmount.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.SKUDirectOrder.Name}}</t>
   </si>
 </sst>
 </file>
@@ -592,7 +625,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -623,16 +656,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -646,7 +679,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -711,10 +744,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -737,13 +770,13 @@
     </row>
     <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -765,13 +798,13 @@
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -793,13 +826,13 @@
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -821,13 +854,13 @@
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -849,13 +882,13 @@
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -877,13 +910,13 @@
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -905,13 +938,13 @@
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -933,13 +966,13 @@
     </row>
     <row r="14" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -961,13 +994,13 @@
     </row>
     <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -989,13 +1022,13 @@
     </row>
     <row r="16" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1017,13 +1050,13 @@
     </row>
     <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1045,10 +1078,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1069,18 +1102,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'Chi tieu'!$A$2:$A$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1099,62 +1120,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1199,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9C6591-7BAA-47FF-AEDB-A83384CB304D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB50A06C-FC76-47E3-A52C-A92BB48CD71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="4275" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI nhan vien" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,6 +308,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -316,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -338,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +636,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -637,136 +648,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="11"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -778,23 +789,23 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -806,23 +817,23 @@
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -834,23 +845,23 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -862,23 +873,23 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -890,23 +901,23 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -918,23 +929,23 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -946,23 +957,23 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -974,23 +985,23 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1002,23 +1013,23 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1030,23 +1041,23 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1058,23 +1069,23 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1086,7 +1097,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:C5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B6:T6"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="D1:K1"/>
@@ -1119,7 +1131,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1198,7 +1210,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB50A06C-FC76-47E3-A52C-A92BB48CD71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFA160-18E6-4A96-BF5C-C63D0BABD0B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -78,27 +78,6 @@
   </si>
   <si>
     <t>Năm</t>
-  </si>
-  <si>
-    <t>Số lần viếng thăm đại lý</t>
-  </si>
-  <si>
-    <t>Số đại lý tạo mới</t>
-  </si>
-  <si>
-    <t>Số đại lý viếng thăm</t>
-  </si>
-  <si>
-    <t>SKU/ Đơn hàng gián tiếp</t>
-  </si>
-  <si>
-    <t>Doanh thu đơn hàng gián tiếp</t>
-  </si>
-  <si>
-    <t>Tổng sản lượng đơn hàng gián tiếp</t>
-  </si>
-  <si>
-    <t>Số đơn hàng gián tiếp</t>
   </si>
   <si>
     <t>Mã nhân viên</t>
@@ -121,7 +100,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -131,7 +110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,36 +140,15 @@
     <t>Vui lòng insert các chỉ tiêu vào theo từng nhân viên</t>
   </si>
   <si>
-    <t>SKU/ Đơn hàng trực tiếp</t>
-  </si>
-  <si>
-    <t>Doanh thu đơn hàng trực tiếp</t>
-  </si>
-  <si>
-    <t>Tổng sản lượng đơn hàng trực tiếp</t>
-  </si>
-  <si>
-    <t>Số đơn hàng trực tiếp</t>
-  </si>
-  <si>
     <t>{{KpiGenerals.Username}}</t>
   </si>
   <si>
     <t>{{KpiGenerals.DisplayName}}</t>
   </si>
   <si>
-    <t>{{KpiGenerals.TotalIndirectOrders.Name}}</t>
-  </si>
-  <si>
-    <t>{{KpiGenerals.TotalIndirectQuantity.Name}}</t>
-  </si>
-  <si>
     <t>{{KpiGenerals.TotalIndirectSalesAmount.Name}}</t>
   </si>
   <si>
-    <t>{{KpiGenerals.SKUIndirectOrder.Name}}</t>
-  </si>
-  <si>
     <t>{{KpiGenerals.StoresVisited.Name}}</t>
   </si>
   <si>
@@ -200,27 +158,63 @@
     <t>{{KpiGenerals.NumberOfStoreVisits.Name}}</t>
   </si>
   <si>
-    <t>{{KpiGenerals.TotalDirectOrders.Name}}</t>
-  </si>
-  <si>
-    <t>{{KpiGenerals.TotalDirectQuantity.Name}}</t>
-  </si>
-  <si>
-    <t>{{KpiGenerals.TotalDirectSalesAmount.Name}}</t>
-  </si>
-  <si>
-    <t>{{KpiGenerals.SKUDirectOrder.Name}}</t>
+    <t>Tổng doanh thu đơn hàng</t>
+  </si>
+  <si>
+    <t>Doanh thu C2 Trọng điểm</t>
+  </si>
+  <si>
+    <t>Doanh thu C2 Siêu lớn</t>
+  </si>
+  <si>
+    <t>Doanh thu C2</t>
+  </si>
+  <si>
+    <t>Tổng số đại lý mở mới</t>
+  </si>
+  <si>
+    <t>Số đại lý trọng điểm mở mới</t>
+  </si>
+  <si>
+    <t>Số đại lý ghé thăm</t>
+  </si>
+  <si>
+    <t>Tổng số lượt ghé thăm</t>
+  </si>
+  <si>
+    <t>Số thông tin phản ánh</t>
+  </si>
+  <si>
+    <t>Số hình ảnh chụp</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.RevenueC2TD.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.RevenueC2.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.RevenueC2SL.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.NewStoreC2Created.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalProblem.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.TotalImage.Name}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +222,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +230,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,6 +239,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +341,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,8 +356,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,76 +646,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="20" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10" t="s">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
@@ -751,43 +764,43 @@
       <c r="S5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -807,15 +820,15 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -835,15 +848,15 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -863,15 +876,15 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -891,15 +904,15 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -919,15 +932,15 @@
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -947,15 +960,15 @@
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -975,15 +988,15 @@
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1003,15 +1016,15 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1031,15 +1044,15 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1059,40 +1072,12 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1122,73 +1107,71 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,14 +1187,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="366.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Kpi_General.xlsx
+++ b/DMS/Templates/Kpi_General.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFA160-18E6-4A96-BF5C-C63D0BABD0B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1177DC-4C9D-49C0-BEB5-83E480F4A6F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,13 +197,13 @@
     <t>{{KpiGenerals.RevenueC2SL.Name}}</t>
   </si>
   <si>
-    <t>{{KpiGenerals.NewStoreC2Created.Name}}</t>
-  </si>
-  <si>
     <t>{{KpiGenerals.TotalProblem.Name}}</t>
   </si>
   <si>
     <t>{{KpiGenerals.TotalImage.Name}}</t>
+  </si>
+  <si>
+    <t>{{KpiGenerals.NewStoresC2Created.Name}}</t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,13 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -355,13 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +649,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -661,16 +661,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
@@ -679,43 +679,43 @@
       <c r="G2" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="6" t="s">
         <v>0</v>
       </c>
@@ -764,33 +764,33 @@
       <c r="S5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="11"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -940,7 +940,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1024,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1052,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1121,52 +1121,52 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
